--- a/Boeing 717-200 non-coughing.xlsx
+++ b/Boeing 717-200 non-coughing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="8">
   <si>
     <t>N</t>
   </si>
@@ -32,6 +32,12 @@
   </si>
   <si>
     <t>Optimal</t>
+  </si>
+  <si>
+    <t>Reduced</t>
+  </si>
+  <si>
+    <t>Reduced Marginal</t>
   </si>
 </sst>
 </file>
@@ -954,7 +960,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Boeing 717-200(717)'!$D$2:$D$111</c:f>
+              <c:f>'Boeing 717-200(717)'!$E$2:$E$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="110"/>
@@ -1031,273 +1037,273 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>180</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>360</c:v>
+                  <c:v>1.8</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>540</c:v>
+                  <c:v>2.7</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>720</c:v>
+                  <c:v>3.6</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>900</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1080</c:v>
+                  <c:v>5.4</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1260</c:v>
+                  <c:v>6.3</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1440</c:v>
+                  <c:v>7.2</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1620</c:v>
+                  <c:v>8.1</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1800</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1980</c:v>
+                  <c:v>9.9</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>2160</c:v>
+                  <c:v>10.8</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>2340</c:v>
+                  <c:v>11.7</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>2520</c:v>
+                  <c:v>12.6</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>2700</c:v>
+                  <c:v>13.5</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>2880</c:v>
+                  <c:v>14.4</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>3060</c:v>
+                  <c:v>15.3</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>3240</c:v>
+                  <c:v>16.2</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>3420</c:v>
+                  <c:v>17.100000000000001</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>3600</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>3780</c:v>
+                  <c:v>18.899999999999999</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>3960</c:v>
+                  <c:v>19.8</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>4140</c:v>
+                  <c:v>20.7</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>4320</c:v>
+                  <c:v>21.6</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>4680</c:v>
+                  <c:v>23.4</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>5040</c:v>
+                  <c:v>25.2</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>5580</c:v>
+                  <c:v>27.9</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>6120</c:v>
+                  <c:v>30.6</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>6660</c:v>
+                  <c:v>33.299999999999997</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>7200</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>7740</c:v>
+                  <c:v>38.700000000000003</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>8280</c:v>
+                  <c:v>41.4</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>8820</c:v>
+                  <c:v>44.1</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>9360</c:v>
+                  <c:v>46.8</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>9900</c:v>
+                  <c:v>49.5</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>10440</c:v>
+                  <c:v>52.2</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>10980</c:v>
+                  <c:v>54.9</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>11700</c:v>
+                  <c:v>58.5</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>12420</c:v>
+                  <c:v>62.1</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>13140</c:v>
+                  <c:v>65.7</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>13860</c:v>
+                  <c:v>69.3</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>14580</c:v>
+                  <c:v>72.900000000000006</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>15300</c:v>
+                  <c:v>76.5</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>16020</c:v>
+                  <c:v>80.099999999999994</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>16740</c:v>
+                  <c:v>83.7</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>17460</c:v>
+                  <c:v>87.3</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>18180</c:v>
+                  <c:v>90.9</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>19080</c:v>
+                  <c:v>95.4</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>19980</c:v>
+                  <c:v>99.9</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>20880</c:v>
+                  <c:v>104.4</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>21780</c:v>
+                  <c:v>108.9</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>22680</c:v>
+                  <c:v>113.4</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>23760</c:v>
+                  <c:v>118.8</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>24660</c:v>
+                  <c:v>123.3</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>25740</c:v>
+                  <c:v>128.69999999999999</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>26640</c:v>
+                  <c:v>133.19999999999999</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>27720</c:v>
+                  <c:v>138.6</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>28620</c:v>
+                  <c:v>143.1</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>29700</c:v>
+                  <c:v>148.5</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>30600</c:v>
+                  <c:v>153</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>31680</c:v>
+                  <c:v>158.4</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>32580</c:v>
+                  <c:v>162.9</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>33660</c:v>
+                  <c:v>168.3</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>34560</c:v>
+                  <c:v>172.8</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>35640</c:v>
+                  <c:v>178.2</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>36720</c:v>
+                  <c:v>183.6</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>37800</c:v>
+                  <c:v>189</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>38880</c:v>
+                  <c:v>194.4</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>40320</c:v>
+                  <c:v>201.6</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>41760</c:v>
+                  <c:v>208.8</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>43380</c:v>
+                  <c:v>216.9</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>45000</c:v>
+                  <c:v>225</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>46620</c:v>
+                  <c:v>233.1</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>48240</c:v>
+                  <c:v>241.2</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>49860</c:v>
+                  <c:v>249.3</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>51480</c:v>
+                  <c:v>257.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>53280</c:v>
+                  <c:v>266.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>55080</c:v>
+                  <c:v>275.39999999999998</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>57060</c:v>
+                  <c:v>285.3</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>59040</c:v>
+                  <c:v>295.2</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>61020</c:v>
+                  <c:v>305.10000000000002</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>63000</c:v>
+                  <c:v>315</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>64980</c:v>
+                  <c:v>324.89999999999998</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>66960</c:v>
+                  <c:v>334.8</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>68940</c:v>
+                  <c:v>344.7</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>70920</c:v>
+                  <c:v>354.6</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="132228992"/>
-        <c:axId val="132235648"/>
+        <c:axId val="120448896"/>
+        <c:axId val="120656256"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132228992"/>
+        <c:axId val="120448896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1336,14 +1342,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132235648"/>
+        <c:crossAx val="120656256"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132235648"/>
+        <c:axId val="120656256"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1383,7 +1389,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132228992"/>
+        <c:crossAx val="120448896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1392,7 +1398,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000189" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000189" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -1429,7 +1435,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'Boeing 717-200(717)'!$E$1</c:f>
+              <c:f>'Boeing 717-200(717)'!$F$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1779,7 +1785,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'Boeing 717-200(717)'!$E$2:$E$111</c:f>
+              <c:f>'Boeing 717-200(717)'!$G$2:$G$111</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="110"/>
@@ -1853,273 +1859,273 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>180</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>180</c:v>
+                  <c:v>0.9</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>180</c:v>
+                  <c:v>0.90000000000000013</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>180</c:v>
+                  <c:v>0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>180</c:v>
+                  <c:v>0.89999999999999991</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>180</c:v>
+                  <c:v>0.90000000000000036</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>180</c:v>
+                  <c:v>0.89999999999999947</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>180</c:v>
+                  <c:v>0.90000000000000036</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>180</c:v>
+                  <c:v>0.89999999999999947</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>180</c:v>
+                  <c:v>0.90000000000000036</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>180</c:v>
+                  <c:v>0.90000000000000036</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>180</c:v>
+                  <c:v>0.90000000000000036</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>180</c:v>
+                  <c:v>0.89999999999999858</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>180</c:v>
+                  <c:v>0.90000000000000036</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>180</c:v>
+                  <c:v>0.90000000000000036</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>180</c:v>
+                  <c:v>0.90000000000000036</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>180</c:v>
+                  <c:v>0.90000000000000036</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>180</c:v>
+                  <c:v>0.89999999999999858</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>180</c:v>
+                  <c:v>0.90000000000000213</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>180</c:v>
+                  <c:v>0.89999999999999858</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>180</c:v>
+                  <c:v>0.89999999999999858</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>180</c:v>
+                  <c:v>0.90000000000000213</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>180</c:v>
+                  <c:v>0.89999999999999858</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>180</c:v>
+                  <c:v>0.90000000000000213</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>360</c:v>
+                  <c:v>1.7999999999999972</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>360</c:v>
+                  <c:v>1.8000000000000007</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>540</c:v>
+                  <c:v>2.6999999999999993</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>540</c:v>
+                  <c:v>2.7000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>540</c:v>
+                  <c:v>2.6999999999999957</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>540</c:v>
+                  <c:v>2.7000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>540</c:v>
+                  <c:v>2.7000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>540</c:v>
+                  <c:v>2.6999999999999957</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>540</c:v>
+                  <c:v>2.7000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>540</c:v>
+                  <c:v>2.6999999999999957</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>540</c:v>
+                  <c:v>2.7000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>540</c:v>
+                  <c:v>2.7000000000000028</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>540</c:v>
+                  <c:v>2.6999999999999957</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>720</c:v>
+                  <c:v>3.6000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>720</c:v>
+                  <c:v>3.6000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>720</c:v>
+                  <c:v>3.6000000000000014</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>720</c:v>
+                  <c:v>3.5999999999999943</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>720</c:v>
+                  <c:v>3.6000000000000085</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>720</c:v>
+                  <c:v>3.5999999999999943</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>720</c:v>
+                  <c:v>3.5999999999999943</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>720</c:v>
+                  <c:v>3.6000000000000085</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>720</c:v>
+                  <c:v>3.5999999999999943</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>720</c:v>
+                  <c:v>3.6000000000000085</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>900</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>900</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>900</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>900</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>900</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1080</c:v>
+                  <c:v>5.3999999999999915</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>900</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1080</c:v>
+                  <c:v>5.3999999999999915</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>900</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1080</c:v>
+                  <c:v>5.4000000000000057</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>900</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1080</c:v>
+                  <c:v>5.4000000000000057</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>900</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1080</c:v>
+                  <c:v>5.4000000000000057</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>900</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1080</c:v>
+                  <c:v>5.4000000000000057</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>900</c:v>
+                  <c:v>4.5</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1080</c:v>
+                  <c:v>5.3999999999999773</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1080</c:v>
+                  <c:v>5.4000000000000057</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1080</c:v>
+                  <c:v>5.4000000000000057</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1080</c:v>
+                  <c:v>5.4000000000000057</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1440</c:v>
+                  <c:v>7.1999999999999886</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1440</c:v>
+                  <c:v>7.2000000000000171</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1620</c:v>
+                  <c:v>8.0999999999999943</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1620</c:v>
+                  <c:v>8.0999999999999943</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1620</c:v>
+                  <c:v>8.0999999999999943</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1620</c:v>
+                  <c:v>8.0999999999999943</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1620</c:v>
+                  <c:v>8.1000000000000227</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1620</c:v>
+                  <c:v>8.0999999999999659</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1800</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1800</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1980</c:v>
+                  <c:v>9.9000000000000341</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1980</c:v>
+                  <c:v>9.8999999999999773</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1980</c:v>
+                  <c:v>9.9000000000000341</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1980</c:v>
+                  <c:v>9.8999999999999773</c:v>
                 </c:pt>
                 <c:pt idx="106">
-                  <c:v>1980</c:v>
+                  <c:v>9.8999999999999773</c:v>
                 </c:pt>
                 <c:pt idx="107">
-                  <c:v>1980</c:v>
+                  <c:v>9.9000000000000341</c:v>
                 </c:pt>
                 <c:pt idx="108">
-                  <c:v>1980</c:v>
+                  <c:v>9.8999999999999773</c:v>
                 </c:pt>
                 <c:pt idx="109">
-                  <c:v>1980</c:v>
+                  <c:v>9.9000000000000341</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="132591616"/>
-        <c:axId val="132593536"/>
+        <c:axId val="120676352"/>
+        <c:axId val="120678272"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132591616"/>
+        <c:axId val="120676352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2158,17 +2164,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132593536"/>
+        <c:crossAx val="120678272"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132593536"/>
+        <c:axId val="120678272"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="2000"/>
         </c:scaling>
         <c:axPos val="l"/>
         <c:majorGridlines/>
@@ -2211,7 +2216,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132591616"/>
+        <c:crossAx val="120676352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2220,7 +2225,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2946,11 +2951,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="132617728"/>
-        <c:axId val="132619648"/>
+        <c:axId val="120714752"/>
+        <c:axId val="120716672"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="132617728"/>
+        <c:axId val="120714752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2989,14 +2994,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132619648"/>
+        <c:crossAx val="120716672"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="132619648"/>
+        <c:axId val="120716672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3041,7 +3046,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="132617728"/>
+        <c:crossAx val="120714752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3050,7 +3055,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3060,13 +3065,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>7620</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>571500</xdr:colOff>
       <xdr:row>46</xdr:row>
       <xdr:rowOff>144780</xdr:rowOff>
@@ -3090,13 +3095,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>586740</xdr:colOff>
       <xdr:row>47</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>541020</xdr:colOff>
       <xdr:row>93</xdr:row>
       <xdr:rowOff>114300</xdr:rowOff>
@@ -3120,13 +3125,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
+      <xdr:col>7</xdr:col>
       <xdr:colOff>579120</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>83820</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>30</xdr:col>
+      <xdr:col>31</xdr:col>
       <xdr:colOff>533400</xdr:colOff>
       <xdr:row>142</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -3436,15 +3441,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E111"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F124" sqref="F124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3458,10 +3463,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3474,8 +3485,12 @@
       <c r="D2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:5">
+      <c r="E2">
+        <f>D2/200</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3489,11 +3504,19 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E34" si="0">D3 - D2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <f t="shared" ref="E3:E66" si="0">D3/200</f>
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ref="F3:G34" si="1">D3 - D2</f>
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3510,8 +3533,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:5">
+      <c r="F4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3528,8 +3559,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3546,8 +3585,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:5">
+      <c r="F6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3564,8 +3611,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:5">
+      <c r="F7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3582,8 +3637,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:5">
+      <c r="F8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3600,8 +3663,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:5">
+      <c r="F9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3618,8 +3689,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:5">
+      <c r="F10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3636,8 +3715,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:5">
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3654,8 +3741,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:5">
+      <c r="F12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3672,8 +3767,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:5">
+      <c r="F13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3690,8 +3793,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:5">
+      <c r="F14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3708,8 +3819,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3726,8 +3845,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:5">
+      <c r="F16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3744,8 +3871,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3762,8 +3897,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3780,8 +3923,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:5">
+      <c r="F19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3798,8 +3949,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:5">
+      <c r="F20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3816,8 +3975,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:5">
+      <c r="F21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22">
         <v>21</v>
       </c>
@@ -3834,8 +4001,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23">
         <v>22</v>
       </c>
@@ -3852,8 +4027,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24">
         <v>23</v>
       </c>
@@ -3870,8 +4053,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:5">
+      <c r="F24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25">
         <v>24</v>
       </c>
@@ -3888,8 +4079,16 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:5">
+      <c r="F25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26">
         <v>25</v>
       </c>
@@ -3904,10 +4103,18 @@
       </c>
       <c r="E26">
         <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="F26">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="27" spans="1:5">
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27">
         <v>26</v>
       </c>
@@ -3922,10 +4129,18 @@
       </c>
       <c r="E27">
         <f t="shared" si="0"/>
+        <v>1.8</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="G27">
+        <f t="shared" si="1"/>
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28">
         <v>27</v>
       </c>
@@ -3940,10 +4155,18 @@
       </c>
       <c r="E28">
         <f t="shared" si="0"/>
+        <v>2.7</v>
+      </c>
+      <c r="F28">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="29" spans="1:5">
+      <c r="G28">
+        <f t="shared" si="1"/>
+        <v>0.90000000000000013</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29">
         <v>28</v>
       </c>
@@ -3958,10 +4181,18 @@
       </c>
       <c r="E29">
         <f t="shared" si="0"/>
+        <v>3.6</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="30" spans="1:5">
+      <c r="G29">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30">
         <v>29</v>
       </c>
@@ -3976,10 +4207,18 @@
       </c>
       <c r="E30">
         <f t="shared" si="0"/>
+        <v>4.5</v>
+      </c>
+      <c r="F30">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="31" spans="1:5">
+      <c r="G30">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999991</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31">
         <v>30</v>
       </c>
@@ -3994,10 +4233,18 @@
       </c>
       <c r="E31">
         <f t="shared" si="0"/>
+        <v>5.4</v>
+      </c>
+      <c r="F31">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="32" spans="1:5">
+      <c r="G31">
+        <f t="shared" si="1"/>
+        <v>0.90000000000000036</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4012,10 +4259,18 @@
       </c>
       <c r="E32">
         <f t="shared" si="0"/>
+        <v>6.3</v>
+      </c>
+      <c r="F32">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="33" spans="1:5">
+      <c r="G32">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999947</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4030,10 +4285,18 @@
       </c>
       <c r="E33">
         <f t="shared" si="0"/>
+        <v>7.2</v>
+      </c>
+      <c r="F33">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="34" spans="1:5">
+      <c r="G33">
+        <f t="shared" si="1"/>
+        <v>0.90000000000000036</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4048,10 +4311,18 @@
       </c>
       <c r="E34">
         <f t="shared" si="0"/>
+        <v>8.1</v>
+      </c>
+      <c r="F34">
+        <f t="shared" si="1"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="35" spans="1:5">
+      <c r="G34">
+        <f t="shared" si="1"/>
+        <v>0.89999999999999947</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4065,11 +4336,19 @@
         <v>1800</v>
       </c>
       <c r="E35">
-        <f t="shared" ref="E35:E66" si="1">D35 - D34</f>
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="F35">
+        <f t="shared" ref="F35:G66" si="2">D35 - D34</f>
         <v>180</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>0.90000000000000036</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4083,11 +4362,19 @@
         <v>1980</v>
       </c>
       <c r="E36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>9.9</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="37" spans="1:5">
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>0.90000000000000036</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4101,11 +4388,19 @@
         <v>2160</v>
       </c>
       <c r="E37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>10.8</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>0.90000000000000036</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4119,11 +4414,19 @@
         <v>2340</v>
       </c>
       <c r="E38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>11.7</v>
+      </c>
+      <c r="F38">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="39" spans="1:5">
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999858</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4137,11 +4440,19 @@
         <v>2520</v>
       </c>
       <c r="E39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>12.6</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="40" spans="1:5">
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>0.90000000000000036</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4155,11 +4466,19 @@
         <v>2700</v>
       </c>
       <c r="E40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>13.5</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="41" spans="1:5">
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>0.90000000000000036</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4173,11 +4492,19 @@
         <v>2880</v>
       </c>
       <c r="E41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>14.4</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="42" spans="1:5">
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>0.90000000000000036</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4191,11 +4518,19 @@
         <v>3060</v>
       </c>
       <c r="E42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>15.3</v>
+      </c>
+      <c r="F42">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="43" spans="1:5">
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>0.90000000000000036</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4209,11 +4544,19 @@
         <v>3240</v>
       </c>
       <c r="E43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>16.2</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="44" spans="1:5">
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999858</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4227,11 +4570,19 @@
         <v>3420</v>
       </c>
       <c r="E44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>17.100000000000001</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="45" spans="1:5">
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>0.90000000000000213</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4245,11 +4596,19 @@
         <v>3600</v>
       </c>
       <c r="E45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999858</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4263,11 +4622,19 @@
         <v>3780</v>
       </c>
       <c r="E46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>18.899999999999999</v>
+      </c>
+      <c r="F46">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="47" spans="1:5">
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999858</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4281,11 +4648,19 @@
         <v>3960</v>
       </c>
       <c r="E47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>19.8</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="48" spans="1:5">
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>0.90000000000000213</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4299,11 +4674,19 @@
         <v>4140</v>
       </c>
       <c r="E48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>20.7</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="49" spans="1:5">
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>0.89999999999999858</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4317,11 +4700,19 @@
         <v>4320</v>
       </c>
       <c r="E49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>21.6</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="2"/>
         <v>180</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>0.90000000000000213</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4335,11 +4726,19 @@
         <v>4680</v>
       </c>
       <c r="E50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>23.4</v>
+      </c>
+      <c r="F50">
+        <f t="shared" si="2"/>
         <v>360</v>
       </c>
-    </row>
-    <row r="51" spans="1:5">
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>1.7999999999999972</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4353,11 +4752,19 @@
         <v>5040</v>
       </c>
       <c r="E51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>25.2</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="2"/>
         <v>360</v>
       </c>
-    </row>
-    <row r="52" spans="1:5">
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>1.8000000000000007</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4371,11 +4778,19 @@
         <v>5580</v>
       </c>
       <c r="E52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>27.9</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>2.6999999999999993</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4389,11 +4804,19 @@
         <v>6120</v>
       </c>
       <c r="E53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>30.6</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>2.7000000000000028</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4407,11 +4830,19 @@
         <v>6660</v>
       </c>
       <c r="E54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>33.299999999999997</v>
+      </c>
+      <c r="F54">
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
-    </row>
-    <row r="55" spans="1:5">
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>2.6999999999999957</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4425,11 +4856,19 @@
         <v>7200</v>
       </c>
       <c r="E55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>36</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
-    </row>
-    <row r="56" spans="1:5">
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>2.7000000000000028</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4443,11 +4882,19 @@
         <v>7740</v>
       </c>
       <c r="E56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>38.700000000000003</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
-    </row>
-    <row r="57" spans="1:5">
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>2.7000000000000028</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4461,11 +4908,19 @@
         <v>8280</v>
       </c>
       <c r="E57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>41.4</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
-    </row>
-    <row r="58" spans="1:5">
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>2.6999999999999957</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4479,11 +4934,19 @@
         <v>8820</v>
       </c>
       <c r="E58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>44.1</v>
+      </c>
+      <c r="F58">
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
-    </row>
-    <row r="59" spans="1:5">
+      <c r="G58">
+        <f t="shared" si="2"/>
+        <v>2.7000000000000028</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4497,11 +4960,19 @@
         <v>9360</v>
       </c>
       <c r="E59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>46.8</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
-    </row>
-    <row r="60" spans="1:5">
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>2.6999999999999957</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4515,11 +4986,19 @@
         <v>9900</v>
       </c>
       <c r="E60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>49.5</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
-    </row>
-    <row r="61" spans="1:5">
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>2.7000000000000028</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61">
         <v>60</v>
       </c>
@@ -4533,11 +5012,19 @@
         <v>10440</v>
       </c>
       <c r="E61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>52.2</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
-    </row>
-    <row r="62" spans="1:5">
+      <c r="G61">
+        <f t="shared" si="2"/>
+        <v>2.7000000000000028</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62">
         <v>61</v>
       </c>
@@ -4551,11 +5038,19 @@
         <v>10980</v>
       </c>
       <c r="E62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>54.9</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="2"/>
         <v>540</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="G62">
+        <f t="shared" si="2"/>
+        <v>2.6999999999999957</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63">
         <v>62</v>
       </c>
@@ -4569,11 +5064,19 @@
         <v>11700</v>
       </c>
       <c r="E63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>58.5</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
-    </row>
-    <row r="64" spans="1:5">
+      <c r="G63">
+        <f t="shared" si="2"/>
+        <v>3.6000000000000014</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64">
         <v>63</v>
       </c>
@@ -4587,11 +5090,19 @@
         <v>12420</v>
       </c>
       <c r="E64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>62.1</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
-    </row>
-    <row r="65" spans="1:5">
+      <c r="G64">
+        <f t="shared" si="2"/>
+        <v>3.6000000000000014</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65">
         <v>64</v>
       </c>
@@ -4605,11 +5116,19 @@
         <v>13140</v>
       </c>
       <c r="E65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>65.7</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
-    </row>
-    <row r="66" spans="1:5">
+      <c r="G65">
+        <f t="shared" si="2"/>
+        <v>3.6000000000000014</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66">
         <v>65</v>
       </c>
@@ -4623,11 +5142,19 @@
         <v>13860</v>
       </c>
       <c r="E66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
+        <v>69.3</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="2"/>
         <v>720</v>
       </c>
-    </row>
-    <row r="67" spans="1:5">
+      <c r="G66">
+        <f t="shared" si="2"/>
+        <v>3.5999999999999943</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67">
         <v>66</v>
       </c>
@@ -4641,11 +5168,19 @@
         <v>14580</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E98" si="2">D67 - D66</f>
+        <f t="shared" ref="E67:E111" si="3">D67/200</f>
+        <v>72.900000000000006</v>
+      </c>
+      <c r="F67">
+        <f t="shared" ref="F67:G98" si="4">D67 - D66</f>
         <v>720</v>
       </c>
-    </row>
-    <row r="68" spans="1:5">
+      <c r="G67">
+        <f t="shared" si="4"/>
+        <v>3.6000000000000085</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68">
         <v>67</v>
       </c>
@@ -4659,11 +5194,19 @@
         <v>15300</v>
       </c>
       <c r="E68">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>76.5</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="4"/>
         <v>720</v>
       </c>
-    </row>
-    <row r="69" spans="1:5">
+      <c r="G68">
+        <f t="shared" si="4"/>
+        <v>3.5999999999999943</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69">
         <v>68</v>
       </c>
@@ -4677,11 +5220,19 @@
         <v>16020</v>
       </c>
       <c r="E69">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>80.099999999999994</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="4"/>
         <v>720</v>
       </c>
-    </row>
-    <row r="70" spans="1:5">
+      <c r="G69">
+        <f t="shared" si="4"/>
+        <v>3.5999999999999943</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70">
         <v>69</v>
       </c>
@@ -4695,11 +5246,19 @@
         <v>16740</v>
       </c>
       <c r="E70">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>83.7</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="4"/>
         <v>720</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="G70">
+        <f t="shared" si="4"/>
+        <v>3.6000000000000085</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71">
         <v>70</v>
       </c>
@@ -4713,11 +5272,19 @@
         <v>17460</v>
       </c>
       <c r="E71">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>87.3</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="4"/>
         <v>720</v>
       </c>
-    </row>
-    <row r="72" spans="1:5">
+      <c r="G71">
+        <f t="shared" si="4"/>
+        <v>3.5999999999999943</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72">
         <v>71</v>
       </c>
@@ -4731,11 +5298,19 @@
         <v>18180</v>
       </c>
       <c r="E72">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>90.9</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="4"/>
         <v>720</v>
       </c>
-    </row>
-    <row r="73" spans="1:5">
+      <c r="G72">
+        <f t="shared" si="4"/>
+        <v>3.6000000000000085</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73">
         <v>72</v>
       </c>
@@ -4749,11 +5324,19 @@
         <v>19080</v>
       </c>
       <c r="E73">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>95.4</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
-    </row>
-    <row r="74" spans="1:5">
+      <c r="G73">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74">
         <v>73</v>
       </c>
@@ -4767,11 +5350,19 @@
         <v>19980</v>
       </c>
       <c r="E74">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>99.9</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
-    </row>
-    <row r="75" spans="1:5">
+      <c r="G74">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75">
         <v>74</v>
       </c>
@@ -4785,11 +5376,19 @@
         <v>20880</v>
       </c>
       <c r="E75">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>104.4</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
-    </row>
-    <row r="76" spans="1:5">
+      <c r="G75">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76">
         <v>75</v>
       </c>
@@ -4803,11 +5402,19 @@
         <v>21780</v>
       </c>
       <c r="E76">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>108.9</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
-    </row>
-    <row r="77" spans="1:5">
+      <c r="G76">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77">
         <v>76</v>
       </c>
@@ -4821,11 +5428,19 @@
         <v>22680</v>
       </c>
       <c r="E77">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>113.4</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
-    </row>
-    <row r="78" spans="1:5">
+      <c r="G77">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78">
         <v>77</v>
       </c>
@@ -4839,11 +5454,19 @@
         <v>23760</v>
       </c>
       <c r="E78">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>118.8</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="4"/>
         <v>1080</v>
       </c>
-    </row>
-    <row r="79" spans="1:5">
+      <c r="G78">
+        <f t="shared" si="4"/>
+        <v>5.3999999999999915</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79">
         <v>78</v>
       </c>
@@ -4857,11 +5480,19 @@
         <v>24660</v>
       </c>
       <c r="E79">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>123.3</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="G79">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80">
         <v>79</v>
       </c>
@@ -4875,11 +5506,19 @@
         <v>25740</v>
       </c>
       <c r="E80">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>128.69999999999999</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="4"/>
         <v>1080</v>
       </c>
-    </row>
-    <row r="81" spans="1:5">
+      <c r="G80">
+        <f t="shared" si="4"/>
+        <v>5.3999999999999915</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81">
         <v>80</v>
       </c>
@@ -4893,11 +5532,19 @@
         <v>26640</v>
       </c>
       <c r="E81">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>133.19999999999999</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
-    </row>
-    <row r="82" spans="1:5">
+      <c r="G81">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82">
         <v>81</v>
       </c>
@@ -4911,11 +5558,19 @@
         <v>27720</v>
       </c>
       <c r="E82">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>138.6</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="4"/>
         <v>1080</v>
       </c>
-    </row>
-    <row r="83" spans="1:5">
+      <c r="G82">
+        <f t="shared" si="4"/>
+        <v>5.4000000000000057</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83">
         <v>82</v>
       </c>
@@ -4929,11 +5584,19 @@
         <v>28620</v>
       </c>
       <c r="E83">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>143.1</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
-    </row>
-    <row r="84" spans="1:5">
+      <c r="G83">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84">
         <v>83</v>
       </c>
@@ -4947,11 +5610,19 @@
         <v>29700</v>
       </c>
       <c r="E84">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>148.5</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="4"/>
         <v>1080</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="G84">
+        <f t="shared" si="4"/>
+        <v>5.4000000000000057</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85">
         <v>84</v>
       </c>
@@ -4965,11 +5636,19 @@
         <v>30600</v>
       </c>
       <c r="E85">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>153</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
-    </row>
-    <row r="86" spans="1:5">
+      <c r="G85">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86">
         <v>85</v>
       </c>
@@ -4983,11 +5662,19 @@
         <v>31680</v>
       </c>
       <c r="E86">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>158.4</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="4"/>
         <v>1080</v>
       </c>
-    </row>
-    <row r="87" spans="1:5">
+      <c r="G86">
+        <f t="shared" si="4"/>
+        <v>5.4000000000000057</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5001,11 +5688,19 @@
         <v>32580</v>
       </c>
       <c r="E87">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>162.9</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
-    </row>
-    <row r="88" spans="1:5">
+      <c r="G87">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5019,11 +5714,19 @@
         <v>33660</v>
       </c>
       <c r="E88">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>168.3</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="4"/>
         <v>1080</v>
       </c>
-    </row>
-    <row r="89" spans="1:5">
+      <c r="G88">
+        <f t="shared" si="4"/>
+        <v>5.4000000000000057</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5037,11 +5740,19 @@
         <v>34560</v>
       </c>
       <c r="E89">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>172.8</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="4"/>
         <v>900</v>
       </c>
-    </row>
-    <row r="90" spans="1:5">
+      <c r="G89">
+        <f t="shared" si="4"/>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5055,11 +5766,19 @@
         <v>35640</v>
       </c>
       <c r="E90">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>178.2</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="4"/>
         <v>1080</v>
       </c>
-    </row>
-    <row r="91" spans="1:5">
+      <c r="G90">
+        <f t="shared" si="4"/>
+        <v>5.3999999999999773</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5073,11 +5792,19 @@
         <v>36720</v>
       </c>
       <c r="E91">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>183.6</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="4"/>
         <v>1080</v>
       </c>
-    </row>
-    <row r="92" spans="1:5">
+      <c r="G91">
+        <f t="shared" si="4"/>
+        <v>5.4000000000000057</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5091,11 +5818,19 @@
         <v>37800</v>
       </c>
       <c r="E92">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>189</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="4"/>
         <v>1080</v>
       </c>
-    </row>
-    <row r="93" spans="1:5">
+      <c r="G92">
+        <f t="shared" si="4"/>
+        <v>5.4000000000000057</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5109,11 +5844,19 @@
         <v>38880</v>
       </c>
       <c r="E93">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>194.4</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="4"/>
         <v>1080</v>
       </c>
-    </row>
-    <row r="94" spans="1:5">
+      <c r="G93">
+        <f t="shared" si="4"/>
+        <v>5.4000000000000057</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5127,11 +5870,19 @@
         <v>40320</v>
       </c>
       <c r="E94">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>201.6</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="4"/>
         <v>1440</v>
       </c>
-    </row>
-    <row r="95" spans="1:5">
+      <c r="G94">
+        <f t="shared" si="4"/>
+        <v>7.1999999999999886</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5145,11 +5896,19 @@
         <v>41760</v>
       </c>
       <c r="E95">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>208.8</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="4"/>
         <v>1440</v>
       </c>
-    </row>
-    <row r="96" spans="1:5">
+      <c r="G95">
+        <f t="shared" si="4"/>
+        <v>7.2000000000000171</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5163,11 +5922,19 @@
         <v>43380</v>
       </c>
       <c r="E96">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>216.9</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="4"/>
         <v>1620</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="G96">
+        <f t="shared" si="4"/>
+        <v>8.0999999999999943</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5181,11 +5948,19 @@
         <v>45000</v>
       </c>
       <c r="E97">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>225</v>
+      </c>
+      <c r="F97">
+        <f t="shared" si="4"/>
         <v>1620</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="G97">
+        <f t="shared" si="4"/>
+        <v>8.0999999999999943</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5199,11 +5974,19 @@
         <v>46620</v>
       </c>
       <c r="E98">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
+        <v>233.1</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="4"/>
         <v>1620</v>
       </c>
-    </row>
-    <row r="99" spans="1:5">
+      <c r="G98">
+        <f t="shared" si="4"/>
+        <v>8.0999999999999943</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99">
         <v>98</v>
       </c>
@@ -5217,11 +6000,19 @@
         <v>48240</v>
       </c>
       <c r="E99">
-        <f t="shared" ref="E99:E111" si="3">D99 - D98</f>
+        <f t="shared" si="3"/>
+        <v>241.2</v>
+      </c>
+      <c r="F99">
+        <f t="shared" ref="F99:G111" si="5">D99 - D98</f>
         <v>1620</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="G99">
+        <f t="shared" si="5"/>
+        <v>8.0999999999999943</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100">
         <v>99</v>
       </c>
@@ -5236,10 +6027,18 @@
       </c>
       <c r="E100">
         <f t="shared" si="3"/>
+        <v>249.3</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="5"/>
         <v>1620</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="G100">
+        <f t="shared" si="5"/>
+        <v>8.1000000000000227</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101">
         <v>100</v>
       </c>
@@ -5254,10 +6053,18 @@
       </c>
       <c r="E101">
         <f t="shared" si="3"/>
+        <v>257.39999999999998</v>
+      </c>
+      <c r="F101">
+        <f t="shared" si="5"/>
         <v>1620</v>
       </c>
-    </row>
-    <row r="102" spans="1:5">
+      <c r="G101">
+        <f t="shared" si="5"/>
+        <v>8.0999999999999659</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102">
         <v>101</v>
       </c>
@@ -5272,10 +6079,18 @@
       </c>
       <c r="E102">
         <f t="shared" si="3"/>
+        <v>266.39999999999998</v>
+      </c>
+      <c r="F102">
+        <f t="shared" si="5"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="103" spans="1:5">
+      <c r="G102">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103">
         <v>102</v>
       </c>
@@ -5290,10 +6105,18 @@
       </c>
       <c r="E103">
         <f t="shared" si="3"/>
+        <v>275.39999999999998</v>
+      </c>
+      <c r="F103">
+        <f t="shared" si="5"/>
         <v>1800</v>
       </c>
-    </row>
-    <row r="104" spans="1:5">
+      <c r="G103">
+        <f t="shared" si="5"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104">
         <v>103</v>
       </c>
@@ -5308,10 +6131,18 @@
       </c>
       <c r="E104">
         <f t="shared" si="3"/>
+        <v>285.3</v>
+      </c>
+      <c r="F104">
+        <f t="shared" si="5"/>
         <v>1980</v>
       </c>
-    </row>
-    <row r="105" spans="1:5">
+      <c r="G104">
+        <f t="shared" si="5"/>
+        <v>9.9000000000000341</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7">
       <c r="A105">
         <v>104</v>
       </c>
@@ -5326,10 +6157,18 @@
       </c>
       <c r="E105">
         <f t="shared" si="3"/>
+        <v>295.2</v>
+      </c>
+      <c r="F105">
+        <f t="shared" si="5"/>
         <v>1980</v>
       </c>
-    </row>
-    <row r="106" spans="1:5">
+      <c r="G105">
+        <f t="shared" si="5"/>
+        <v>9.8999999999999773</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7">
       <c r="A106">
         <v>105</v>
       </c>
@@ -5344,10 +6183,18 @@
       </c>
       <c r="E106">
         <f t="shared" si="3"/>
+        <v>305.10000000000002</v>
+      </c>
+      <c r="F106">
+        <f t="shared" si="5"/>
         <v>1980</v>
       </c>
-    </row>
-    <row r="107" spans="1:5">
+      <c r="G106">
+        <f t="shared" si="5"/>
+        <v>9.9000000000000341</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7">
       <c r="A107">
         <v>106</v>
       </c>
@@ -5362,10 +6209,18 @@
       </c>
       <c r="E107">
         <f t="shared" si="3"/>
+        <v>315</v>
+      </c>
+      <c r="F107">
+        <f t="shared" si="5"/>
         <v>1980</v>
       </c>
-    </row>
-    <row r="108" spans="1:5">
+      <c r="G107">
+        <f t="shared" si="5"/>
+        <v>9.8999999999999773</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7">
       <c r="A108">
         <v>107</v>
       </c>
@@ -5380,10 +6235,18 @@
       </c>
       <c r="E108">
         <f t="shared" si="3"/>
+        <v>324.89999999999998</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="5"/>
         <v>1980</v>
       </c>
-    </row>
-    <row r="109" spans="1:5">
+      <c r="G108">
+        <f t="shared" si="5"/>
+        <v>9.8999999999999773</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7">
       <c r="A109">
         <v>108</v>
       </c>
@@ -5398,10 +6261,18 @@
       </c>
       <c r="E109">
         <f t="shared" si="3"/>
+        <v>334.8</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="5"/>
         <v>1980</v>
       </c>
-    </row>
-    <row r="110" spans="1:5">
+      <c r="G109">
+        <f t="shared" si="5"/>
+        <v>9.9000000000000341</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7">
       <c r="A110">
         <v>109</v>
       </c>
@@ -5416,10 +6287,18 @@
       </c>
       <c r="E110">
         <f t="shared" si="3"/>
+        <v>344.7</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="5"/>
         <v>1980</v>
       </c>
-    </row>
-    <row r="111" spans="1:5">
+      <c r="G110">
+        <f t="shared" si="5"/>
+        <v>9.8999999999999773</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7">
       <c r="A111">
         <v>110</v>
       </c>
@@ -5434,7 +6313,15 @@
       </c>
       <c r="E111">
         <f t="shared" si="3"/>
+        <v>354.6</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="5"/>
         <v>1980</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="5"/>
+        <v>9.9000000000000341</v>
       </c>
     </row>
   </sheetData>

--- a/Boeing 717-200 non-coughing.xlsx
+++ b/Boeing 717-200 non-coughing.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="9">
   <si>
     <t>N</t>
   </si>
@@ -38,6 +38,9 @@
   </si>
   <si>
     <t>Reduced Marginal</t>
+  </si>
+  <si>
+    <t>Normalized Risk</t>
   </si>
 </sst>
 </file>
@@ -1299,11 +1302,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="120448896"/>
-        <c:axId val="120656256"/>
+        <c:axId val="45222528"/>
+        <c:axId val="45224704"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120448896"/>
+        <c:axId val="45222528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1342,14 +1345,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120656256"/>
+        <c:crossAx val="45224704"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120656256"/>
+        <c:axId val="45224704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1389,7 +1392,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120448896"/>
+        <c:crossAx val="45222528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1398,7 +1401,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.750000000000002" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000002" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000211" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000211" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2121,11 +2124,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="120676352"/>
-        <c:axId val="120678272"/>
+        <c:axId val="99157888"/>
+        <c:axId val="248209408"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120676352"/>
+        <c:axId val="99157888"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2164,14 +2167,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120678272"/>
+        <c:crossAx val="248209408"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120678272"/>
+        <c:axId val="248209408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2216,7 +2219,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120676352"/>
+        <c:crossAx val="99157888"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2225,7 +2228,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000244" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000244" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000255" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000255" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2951,11 +2954,11 @@
           </c:val>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="120714752"/>
-        <c:axId val="120716672"/>
+        <c:axId val="193919232"/>
+        <c:axId val="193929600"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="120714752"/>
+        <c:axId val="193919232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2994,14 +2997,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120716672"/>
+        <c:crossAx val="193929600"/>
         <c:crossesAt val="0"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="120716672"/>
+        <c:axId val="193929600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3046,7 +3049,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="120714752"/>
+        <c:crossAx val="193919232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3055,7 +3058,1669 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000266" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000266" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Boeing 717-200 Non-Coughing</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Risk Model</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Boeing 717-200(717)'!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Normalized Risk</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Boeing 717-200(717)'!$A$2:$A$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Boeing 717-200(717)'!$H$2:$H$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.9230769230769235E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.12857142857142859</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.15517241379310345</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.18000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.20322580645161289</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.22500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.24545454545454545</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.26470588235294118</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.28285714285714286</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.30000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.31621621621621621</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.33157894736842103</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.34615384615384615</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.36</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.37317073170731707</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.38571428571428568</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.39767441860465119</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.40909090909090912</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.42</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.43043478260869567</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.44042553191489359</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.47755102040816322</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.504</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.54705882352941171</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.58846153846153848</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.6283018867924528</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.70363636363636373</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.73928571428571421</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.77368421052631586</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.80689655172413788</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.83898305084745761</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.87</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.94354838709677424</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.98571428571428577</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.0265625</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.066153846153846</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.1045454545454547</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.1417910447761195</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.177941176470588</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.2130434782608697</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.2471428571428571</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.2802816901408451</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.3250000000000002</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.3684931506849316</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.4108108108108108</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.4520000000000002</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.4921052631578948</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5428571428571429</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.5807692307692307</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.6291139240506327</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.6649999999999998</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.711111111111111</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.7451219512195122</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.7891566265060241</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.8214285714285714</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.8635294117647059</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.894186046511628</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.9344827586206899</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.9636363636363638</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>2.0022471910112358</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>2.04</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>2.0769230769230771</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>2.1130434782608698</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>2.1677419354838707</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>2.2212765957446812</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>2.2831578947368421</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>2.34375</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>2.4030927835051545</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.4612244897959181</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.5181818181818181</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.5739999999999998</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.6376237623762373</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.6999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.7699029126213595</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.8384615384615381</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.9057142857142861</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.9716981132075473</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.0364485981308409</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.1</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.1623853211009174</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.2236363636363636</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="46787584"/>
+        <c:axId val="47127552"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="46787584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Number of Assigned</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                  <a:t> Seats</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="47127552"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="47127552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Normalized</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                  <a:t>Risk</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="46787584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000233" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000233" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:lang val="en-US"/>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="1" i="0" baseline="0"/>
+              <a:t>Boeing 717-200 Non-Coughing Risk Model</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Boeing 717-200(717)'!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Marginal</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:cat>
+            <c:numRef>
+              <c:f>'Boeing 717-200(717)'!$A$2:$A$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Boeing 717-200(717)'!$I$2:$I$111</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="110"/>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.6000000000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>3.323076923076923E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>3.0769230769230771E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.8571428571428581E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.6600985221674867E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>2.4827586206896568E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>2.3225806451612874E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>2.1774193548387111E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>2.0454545454545447E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.9251336898395727E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.8151260504201683E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.7142857142857182E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6216216216216162E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.5362731152204823E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.4574898785425117E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.3846153846153841E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.3170731707317085E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.2543554006968605E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.1960132890365516E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.1416490486257924E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0909090909090868E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.0434782608695681E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>9.9907493061979213E-3</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>9.5744680851064246E-3</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.7551020408163207E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>2.6448979591836785E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>4.3058823529411705E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>4.1402714932126772E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3.9840348330914321E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>3.8364779874213828E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>3.6969696969697097E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>3.5649350649350486E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>3.439849624060165E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>3.3212341197822015E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>3.2086499123319734E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>3.1016949152542383E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.0000000000000027E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>4.3548387096774221E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>4.2165898617511521E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>4.0848214285714279E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.9591346153845963E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.8391608391608711E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.724559023066476E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.6150131694468568E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>3.510230179028162E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>3.4099378881987441E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>3.3138832997988033E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>4.4718309859155037E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>4.3493150684931425E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>4.2317660125879231E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>4.1189189189189346E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>4.0105263157894644E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>5.0751879699248104E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>3.7912087912087777E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>4.8344693281402007E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>3.5886075949367102E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>4.6111111111111214E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>3.4010840108401164E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>4.4034675286511948E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>3.2271944922547258E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>4.2100840336134482E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>3.0656634746922151E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.0296712109061827E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>2.9153605015673989E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>3.8610827374871981E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>3.7752808988764208E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.6923076923077058E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.6120401337792707E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>5.4698457223000929E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>5.353466026081044E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>6.1881298992160882E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>6.0592105263157947E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>5.9342783505154539E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>5.8131706290763585E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>5.6957328385899952E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>5.5818181818181767E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>6.3623762376237458E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>6.2376237623762432E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>6.9902912621359725E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>6.8558625840178689E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>6.7252747252747991E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>6.5983827493261149E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>6.4750484923293605E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>6.3551401869159196E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>6.2385321100917324E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>6.1251042535446221E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:marker val="1"/>
+        <c:axId val="111568768"/>
+        <c:axId val="113324032"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="111568768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Number of Assigned</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                  <a:t> Seats</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="113324032"/>
+        <c:crossesAt val="0"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="113324032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400"/>
+                  <a:t>Marginal</a:t>
+                </a:r>
+              </a:p>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="2400"/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="2400" baseline="0"/>
+                  <a:t>Risk</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1800"/>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="111568768"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75000000000000278" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000278" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3065,16 +4730,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>7620</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
+      <xdr:rowOff>60960</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>571500</xdr:colOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
       <xdr:row>46</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3095,16 +4760,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>586740</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>335280</xdr:colOff>
       <xdr:row>47</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>541020</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>289560</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3125,16 +4790,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>419100</xdr:colOff>
       <xdr:row>95</xdr:row>
-      <xdr:rowOff>83820</xdr:rowOff>
+      <xdr:rowOff>53340</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>142</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>373380</xdr:colOff>
+      <xdr:row>141</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3148,6 +4813,66 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>525780</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>57</xdr:col>
+      <xdr:colOff>563880</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3441,15 +5166,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:I111"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F124" sqref="F124"/>
+    <sheetView tabSelected="1" topLeftCell="AD49" workbookViewId="0">
+      <selection activeCell="BH84" sqref="BH84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3471,8 +5196,11 @@
       <c r="G1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:7">
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2">
         <v>1</v>
       </c>
@@ -3489,8 +5217,12 @@
         <f>D2/200</f>
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:7">
+      <c r="H2">
+        <f>E2/A2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3">
         <v>2</v>
       </c>
@@ -3515,8 +5247,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:7">
+      <c r="H3">
+        <f t="shared" ref="H3:H66" si="2">E3/A3</f>
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <f>H3-H2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4">
         <v>3</v>
       </c>
@@ -3541,8 +5281,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:7">
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <f t="shared" ref="I4:I67" si="3">H4-H3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5">
         <v>4</v>
       </c>
@@ -3567,8 +5315,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:7">
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6">
         <v>5</v>
       </c>
@@ -3593,8 +5349,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:7">
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7">
         <v>6</v>
       </c>
@@ -3619,8 +5383,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:7">
+      <c r="H7">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8">
         <v>7</v>
       </c>
@@ -3645,8 +5417,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:7">
+      <c r="H8">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9">
         <v>8</v>
       </c>
@@ -3671,8 +5451,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:7">
+      <c r="H9">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10">
         <v>9</v>
       </c>
@@ -3697,8 +5485,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:7">
+      <c r="H10">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11">
         <v>10</v>
       </c>
@@ -3723,8 +5519,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:7">
+      <c r="H11">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12">
         <v>11</v>
       </c>
@@ -3749,8 +5553,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:7">
+      <c r="H12">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13">
         <v>12</v>
       </c>
@@ -3775,8 +5587,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:7">
+      <c r="H13">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14">
         <v>13</v>
       </c>
@@ -3801,8 +5621,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:7">
+      <c r="H14">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15">
         <v>14</v>
       </c>
@@ -3827,8 +5655,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:7">
+      <c r="H15">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3853,8 +5689,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:7">
+      <c r="H16">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17">
         <v>16</v>
       </c>
@@ -3879,8 +5723,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:7">
+      <c r="H17">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18">
         <v>17</v>
       </c>
@@ -3905,8 +5757,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7">
+      <c r="H18">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19">
         <v>18</v>
       </c>
@@ -3931,8 +5791,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:7">
+      <c r="H19">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20">
         <v>19</v>
       </c>
@@ -3957,8 +5825,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:7">
+      <c r="H20">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21">
         <v>20</v>
       </c>
@@ -3983,8 +5859,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:7">
+      <c r="H21">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22">
         <v>21</v>
       </c>
@@ -4009,8 +5893,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:7">
+      <c r="H22">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23">
         <v>22</v>
       </c>
@@ -4035,8 +5927,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:7">
+      <c r="H23">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24">
         <v>23</v>
       </c>
@@ -4061,8 +5961,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:7">
+      <c r="H24">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25">
         <v>24</v>
       </c>
@@ -4087,8 +5995,16 @@
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:7">
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26">
         <v>25</v>
       </c>
@@ -4113,8 +6029,16 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="27" spans="1:7">
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>3.6000000000000004E-2</v>
+      </c>
+      <c r="I26">
+        <f t="shared" si="3"/>
+        <v>3.6000000000000004E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27">
         <v>26</v>
       </c>
@@ -4139,8 +6063,16 @@
         <f t="shared" si="1"/>
         <v>0.9</v>
       </c>
-    </row>
-    <row r="28" spans="1:7">
+      <c r="H27">
+        <f t="shared" si="2"/>
+        <v>6.9230769230769235E-2</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>3.323076923076923E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28">
         <v>27</v>
       </c>
@@ -4165,8 +6097,16 @@
         <f t="shared" si="1"/>
         <v>0.90000000000000013</v>
       </c>
-    </row>
-    <row r="29" spans="1:7">
+      <c r="H28">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="I28">
+        <f t="shared" si="3"/>
+        <v>3.0769230769230771E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29">
         <v>28</v>
       </c>
@@ -4191,8 +6131,16 @@
         <f t="shared" si="1"/>
         <v>0.89999999999999991</v>
       </c>
-    </row>
-    <row r="30" spans="1:7">
+      <c r="H29">
+        <f t="shared" si="2"/>
+        <v>0.12857142857142859</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="3"/>
+        <v>2.8571428571428581E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30">
         <v>29</v>
       </c>
@@ -4217,8 +6165,16 @@
         <f t="shared" si="1"/>
         <v>0.89999999999999991</v>
       </c>
-    </row>
-    <row r="31" spans="1:7">
+      <c r="H30">
+        <f t="shared" si="2"/>
+        <v>0.15517241379310345</v>
+      </c>
+      <c r="I30">
+        <f t="shared" si="3"/>
+        <v>2.6600985221674867E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31">
         <v>30</v>
       </c>
@@ -4243,8 +6199,16 @@
         <f t="shared" si="1"/>
         <v>0.90000000000000036</v>
       </c>
-    </row>
-    <row r="32" spans="1:7">
+      <c r="H31">
+        <f t="shared" si="2"/>
+        <v>0.18000000000000002</v>
+      </c>
+      <c r="I31">
+        <f t="shared" si="3"/>
+        <v>2.4827586206896568E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32">
         <v>31</v>
       </c>
@@ -4269,8 +6233,16 @@
         <f t="shared" si="1"/>
         <v>0.89999999999999947</v>
       </c>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="H32">
+        <f t="shared" si="2"/>
+        <v>0.20322580645161289</v>
+      </c>
+      <c r="I32">
+        <f t="shared" si="3"/>
+        <v>2.3225806451612874E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>32</v>
       </c>
@@ -4295,8 +6267,16 @@
         <f t="shared" si="1"/>
         <v>0.90000000000000036</v>
       </c>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="H33">
+        <f t="shared" si="2"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="I33">
+        <f t="shared" si="3"/>
+        <v>2.1774193548387111E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>33</v>
       </c>
@@ -4321,8 +6301,16 @@
         <f t="shared" si="1"/>
         <v>0.89999999999999947</v>
       </c>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="H34">
+        <f t="shared" si="2"/>
+        <v>0.24545454545454545</v>
+      </c>
+      <c r="I34">
+        <f t="shared" si="3"/>
+        <v>2.0454545454545447E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>34</v>
       </c>
@@ -4340,15 +6328,23 @@
         <v>9</v>
       </c>
       <c r="F35">
-        <f t="shared" ref="F35:G66" si="2">D35 - D34</f>
+        <f t="shared" ref="F35:G66" si="4">D35 - D34</f>
         <v>180</v>
       </c>
       <c r="G35">
+        <f t="shared" si="4"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="H35">
         <f t="shared" si="2"/>
-        <v>0.90000000000000036</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
+        <v>0.26470588235294118</v>
+      </c>
+      <c r="I35">
+        <f t="shared" si="3"/>
+        <v>1.9251336898395727E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36">
         <v>35</v>
       </c>
@@ -4366,15 +6362,23 @@
         <v>9.9</v>
       </c>
       <c r="F36">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="4"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="H36">
         <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="G36">
-        <f t="shared" si="2"/>
-        <v>0.90000000000000036</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
+        <v>0.28285714285714286</v>
+      </c>
+      <c r="I36">
+        <f t="shared" si="3"/>
+        <v>1.8151260504201683E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37">
         <v>36</v>
       </c>
@@ -4392,15 +6396,23 @@
         <v>10.8</v>
       </c>
       <c r="F37">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="4"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="H37">
         <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="G37">
-        <f t="shared" si="2"/>
-        <v>0.90000000000000036</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7">
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="I37">
+        <f t="shared" si="3"/>
+        <v>1.7142857142857182E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38">
         <v>37</v>
       </c>
@@ -4418,15 +6430,23 @@
         <v>11.7</v>
       </c>
       <c r="F38">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="4"/>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="H38">
         <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="G38">
-        <f t="shared" si="2"/>
-        <v>0.89999999999999858</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
+        <v>0.31621621621621621</v>
+      </c>
+      <c r="I38">
+        <f t="shared" si="3"/>
+        <v>1.6216216216216162E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39">
         <v>38</v>
       </c>
@@ -4444,15 +6464,23 @@
         <v>12.6</v>
       </c>
       <c r="F39">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="4"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="H39">
         <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="2"/>
-        <v>0.90000000000000036</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
+        <v>0.33157894736842103</v>
+      </c>
+      <c r="I39">
+        <f t="shared" si="3"/>
+        <v>1.5362731152204823E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40">
         <v>39</v>
       </c>
@@ -4470,15 +6498,23 @@
         <v>13.5</v>
       </c>
       <c r="F40">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="4"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="H40">
         <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="2"/>
-        <v>0.90000000000000036</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7">
+        <v>0.34615384615384615</v>
+      </c>
+      <c r="I40">
+        <f t="shared" si="3"/>
+        <v>1.4574898785425117E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41">
         <v>40</v>
       </c>
@@ -4496,15 +6532,23 @@
         <v>14.4</v>
       </c>
       <c r="F41">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="4"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="H41">
         <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="2"/>
-        <v>0.90000000000000036</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
+        <v>0.36</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="3"/>
+        <v>1.3846153846153841E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42">
         <v>41</v>
       </c>
@@ -4522,15 +6566,23 @@
         <v>15.3</v>
       </c>
       <c r="F42">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="4"/>
+        <v>0.90000000000000036</v>
+      </c>
+      <c r="H42">
         <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="2"/>
-        <v>0.90000000000000036</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
+        <v>0.37317073170731707</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="3"/>
+        <v>1.3170731707317085E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43">
         <v>42</v>
       </c>
@@ -4548,15 +6600,23 @@
         <v>16.2</v>
       </c>
       <c r="F43">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="4"/>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="H43">
         <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="2"/>
-        <v>0.89999999999999858</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7">
+        <v>0.38571428571428568</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>1.2543554006968605E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44">
         <v>43</v>
       </c>
@@ -4574,15 +6634,23 @@
         <v>17.100000000000001</v>
       </c>
       <c r="F44">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>0.90000000000000213</v>
+      </c>
+      <c r="H44">
         <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="2"/>
-        <v>0.90000000000000213</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7">
+        <v>0.39767441860465119</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="3"/>
+        <v>1.1960132890365516E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45">
         <v>44</v>
       </c>
@@ -4600,15 +6668,23 @@
         <v>18</v>
       </c>
       <c r="F45">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="4"/>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="H45">
         <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="2"/>
-        <v>0.89999999999999858</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
+        <v>0.40909090909090912</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="3"/>
+        <v>1.1416490486257924E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46">
         <v>45</v>
       </c>
@@ -4626,15 +6702,23 @@
         <v>18.899999999999999</v>
       </c>
       <c r="F46">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="4"/>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="H46">
         <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="2"/>
-        <v>0.89999999999999858</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7">
+        <v>0.42</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="3"/>
+        <v>1.0909090909090868E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47">
         <v>46</v>
       </c>
@@ -4652,15 +6736,23 @@
         <v>19.8</v>
       </c>
       <c r="F47">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="4"/>
+        <v>0.90000000000000213</v>
+      </c>
+      <c r="H47">
         <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="2"/>
-        <v>0.90000000000000213</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7">
+        <v>0.43043478260869567</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="3"/>
+        <v>1.0434782608695681E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48">
         <v>47</v>
       </c>
@@ -4678,15 +6770,23 @@
         <v>20.7</v>
       </c>
       <c r="F48">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="4"/>
+        <v>0.89999999999999858</v>
+      </c>
+      <c r="H48">
         <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="2"/>
-        <v>0.89999999999999858</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7">
+        <v>0.44042553191489359</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="3"/>
+        <v>9.9907493061979213E-3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49">
         <v>48</v>
       </c>
@@ -4704,15 +6804,23 @@
         <v>21.6</v>
       </c>
       <c r="F49">
+        <f t="shared" si="4"/>
+        <v>180</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="4"/>
+        <v>0.90000000000000213</v>
+      </c>
+      <c r="H49">
         <f t="shared" si="2"/>
-        <v>180</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="2"/>
-        <v>0.90000000000000213</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7">
+        <v>0.45</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="3"/>
+        <v>9.5744680851064246E-3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50">
         <v>49</v>
       </c>
@@ -4730,15 +6838,23 @@
         <v>23.4</v>
       </c>
       <c r="F50">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="4"/>
+        <v>1.7999999999999972</v>
+      </c>
+      <c r="H50">
         <f t="shared" si="2"/>
-        <v>360</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="2"/>
-        <v>1.7999999999999972</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7">
+        <v>0.47755102040816322</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="3"/>
+        <v>2.7551020408163207E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51">
         <v>50</v>
       </c>
@@ -4756,15 +6872,23 @@
         <v>25.2</v>
       </c>
       <c r="F51">
+        <f t="shared" si="4"/>
+        <v>360</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="4"/>
+        <v>1.8000000000000007</v>
+      </c>
+      <c r="H51">
         <f t="shared" si="2"/>
-        <v>360</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="2"/>
-        <v>1.8000000000000007</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7">
+        <v>0.504</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="3"/>
+        <v>2.6448979591836785E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52">
         <v>51</v>
       </c>
@@ -4782,15 +6906,23 @@
         <v>27.9</v>
       </c>
       <c r="F52">
+        <f t="shared" si="4"/>
+        <v>540</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="4"/>
+        <v>2.6999999999999993</v>
+      </c>
+      <c r="H52">
         <f t="shared" si="2"/>
-        <v>540</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="2"/>
-        <v>2.6999999999999993</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7">
+        <v>0.54705882352941171</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="3"/>
+        <v>4.3058823529411705E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53">
         <v>52</v>
       </c>
@@ -4808,15 +6940,23 @@
         <v>30.6</v>
       </c>
       <c r="F53">
+        <f t="shared" si="4"/>
+        <v>540</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="4"/>
+        <v>2.7000000000000028</v>
+      </c>
+      <c r="H53">
         <f t="shared" si="2"/>
-        <v>540</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="2"/>
-        <v>2.7000000000000028</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7">
+        <v>0.58846153846153848</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="3"/>
+        <v>4.1402714932126772E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54">
         <v>53</v>
       </c>
@@ -4834,15 +6974,23 @@
         <v>33.299999999999997</v>
       </c>
       <c r="F54">
+        <f t="shared" si="4"/>
+        <v>540</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="4"/>
+        <v>2.6999999999999957</v>
+      </c>
+      <c r="H54">
         <f t="shared" si="2"/>
-        <v>540</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="2"/>
-        <v>2.6999999999999957</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7">
+        <v>0.6283018867924528</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="3"/>
+        <v>3.9840348330914321E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55">
         <v>54</v>
       </c>
@@ -4860,15 +7008,23 @@
         <v>36</v>
       </c>
       <c r="F55">
+        <f t="shared" si="4"/>
+        <v>540</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="4"/>
+        <v>2.7000000000000028</v>
+      </c>
+      <c r="H55">
         <f t="shared" si="2"/>
-        <v>540</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="2"/>
-        <v>2.7000000000000028</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="3"/>
+        <v>3.8364779874213828E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56">
         <v>55</v>
       </c>
@@ -4886,15 +7042,23 @@
         <v>38.700000000000003</v>
       </c>
       <c r="F56">
+        <f t="shared" si="4"/>
+        <v>540</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="4"/>
+        <v>2.7000000000000028</v>
+      </c>
+      <c r="H56">
         <f t="shared" si="2"/>
-        <v>540</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="2"/>
-        <v>2.7000000000000028</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7">
+        <v>0.70363636363636373</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="3"/>
+        <v>3.6969696969697097E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57">
         <v>56</v>
       </c>
@@ -4912,15 +7076,23 @@
         <v>41.4</v>
       </c>
       <c r="F57">
+        <f t="shared" si="4"/>
+        <v>540</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="4"/>
+        <v>2.6999999999999957</v>
+      </c>
+      <c r="H57">
         <f t="shared" si="2"/>
-        <v>540</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="2"/>
-        <v>2.6999999999999957</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7">
+        <v>0.73928571428571421</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="3"/>
+        <v>3.5649350649350486E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58">
         <v>57</v>
       </c>
@@ -4938,15 +7110,23 @@
         <v>44.1</v>
       </c>
       <c r="F58">
+        <f t="shared" si="4"/>
+        <v>540</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="4"/>
+        <v>2.7000000000000028</v>
+      </c>
+      <c r="H58">
         <f t="shared" si="2"/>
-        <v>540</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="2"/>
-        <v>2.7000000000000028</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7">
+        <v>0.77368421052631586</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="3"/>
+        <v>3.439849624060165E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59">
         <v>58</v>
       </c>
@@ -4964,15 +7144,23 @@
         <v>46.8</v>
       </c>
       <c r="F59">
+        <f t="shared" si="4"/>
+        <v>540</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="4"/>
+        <v>2.6999999999999957</v>
+      </c>
+      <c r="H59">
         <f t="shared" si="2"/>
-        <v>540</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="2"/>
-        <v>2.6999999999999957</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
+        <v>0.80689655172413788</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="3"/>
+        <v>3.3212341197822015E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60">
         <v>59</v>
       </c>
@@ -4990,15 +7178,23 @@
         <v>49.5</v>
       </c>
       <c r="F60">
+        <f t="shared" si="4"/>
+        <v>540</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="4"/>
+        <v>2.7000000000000028</v>
+      </c>
+      <c r="H60">
         <f t="shared" si="2"/>
-        <v>540</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="2"/>
-        <v>2.7000000000000028</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
+        <v>0.83898305084745761</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="3"/>
+        <v>3.2086499123319734E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61">
         <v>60</v>
       </c>
@@ -5016,15 +7212,23 @@
         <v>52.2</v>
       </c>
       <c r="F61">
+        <f t="shared" si="4"/>
+        <v>540</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="4"/>
+        <v>2.7000000000000028</v>
+      </c>
+      <c r="H61">
         <f t="shared" si="2"/>
-        <v>540</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="2"/>
-        <v>2.7000000000000028</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
+        <v>0.87</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="3"/>
+        <v>3.1016949152542383E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62">
         <v>61</v>
       </c>
@@ -5042,15 +7246,23 @@
         <v>54.9</v>
       </c>
       <c r="F62">
+        <f t="shared" si="4"/>
+        <v>540</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="4"/>
+        <v>2.6999999999999957</v>
+      </c>
+      <c r="H62">
         <f t="shared" si="2"/>
-        <v>540</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="2"/>
-        <v>2.6999999999999957</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7">
+        <v>0.9</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="3"/>
+        <v>3.0000000000000027E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63">
         <v>62</v>
       </c>
@@ -5068,15 +7280,23 @@
         <v>58.5</v>
       </c>
       <c r="F63">
+        <f t="shared" si="4"/>
+        <v>720</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="4"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="H63">
         <f t="shared" si="2"/>
-        <v>720</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="2"/>
-        <v>3.6000000000000014</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7">
+        <v>0.94354838709677424</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="3"/>
+        <v>4.3548387096774221E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64">
         <v>63</v>
       </c>
@@ -5094,15 +7314,23 @@
         <v>62.1</v>
       </c>
       <c r="F64">
+        <f t="shared" si="4"/>
+        <v>720</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="4"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="H64">
         <f t="shared" si="2"/>
-        <v>720</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="2"/>
-        <v>3.6000000000000014</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7">
+        <v>0.98571428571428577</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="3"/>
+        <v>4.2165898617511521E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65">
         <v>64</v>
       </c>
@@ -5120,15 +7348,23 @@
         <v>65.7</v>
       </c>
       <c r="F65">
+        <f t="shared" si="4"/>
+        <v>720</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="4"/>
+        <v>3.6000000000000014</v>
+      </c>
+      <c r="H65">
         <f t="shared" si="2"/>
-        <v>720</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="2"/>
-        <v>3.6000000000000014</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7">
+        <v>1.0265625</v>
+      </c>
+      <c r="I65">
+        <f t="shared" si="3"/>
+        <v>4.0848214285714279E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66">
         <v>65</v>
       </c>
@@ -5146,15 +7382,23 @@
         <v>69.3</v>
       </c>
       <c r="F66">
+        <f t="shared" si="4"/>
+        <v>720</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="4"/>
+        <v>3.5999999999999943</v>
+      </c>
+      <c r="H66">
         <f t="shared" si="2"/>
-        <v>720</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="2"/>
-        <v>3.5999999999999943</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7">
+        <v>1.066153846153846</v>
+      </c>
+      <c r="I66">
+        <f t="shared" si="3"/>
+        <v>3.9591346153845963E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67">
         <v>66</v>
       </c>
@@ -5168,19 +7412,27 @@
         <v>14580</v>
       </c>
       <c r="E67">
-        <f t="shared" ref="E67:E111" si="3">D67/200</f>
+        <f t="shared" ref="E67:E111" si="5">D67/200</f>
         <v>72.900000000000006</v>
       </c>
       <c r="F67">
-        <f t="shared" ref="F67:G98" si="4">D67 - D66</f>
+        <f t="shared" ref="F67:G98" si="6">D67 - D66</f>
         <v>720</v>
       </c>
       <c r="G67">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.6000000000000085</v>
       </c>
-    </row>
-    <row r="68" spans="1:7">
+      <c r="H67">
+        <f t="shared" ref="H67:H111" si="7">E67/A67</f>
+        <v>1.1045454545454547</v>
+      </c>
+      <c r="I67">
+        <f t="shared" si="3"/>
+        <v>3.8391608391608711E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68">
         <v>67</v>
       </c>
@@ -5194,19 +7446,27 @@
         <v>15300</v>
       </c>
       <c r="E68">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>76.5</v>
       </c>
       <c r="F68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>720</v>
       </c>
       <c r="G68">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.5999999999999943</v>
       </c>
-    </row>
-    <row r="69" spans="1:7">
+      <c r="H68">
+        <f t="shared" si="7"/>
+        <v>1.1417910447761195</v>
+      </c>
+      <c r="I68">
+        <f t="shared" ref="I68:I111" si="8">H68-H67</f>
+        <v>3.724559023066476E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69">
         <v>68</v>
       </c>
@@ -5220,19 +7480,27 @@
         <v>16020</v>
       </c>
       <c r="E69">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>80.099999999999994</v>
       </c>
       <c r="F69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>720</v>
       </c>
       <c r="G69">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.5999999999999943</v>
       </c>
-    </row>
-    <row r="70" spans="1:7">
+      <c r="H69">
+        <f t="shared" si="7"/>
+        <v>1.177941176470588</v>
+      </c>
+      <c r="I69">
+        <f t="shared" si="8"/>
+        <v>3.6150131694468568E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70">
         <v>69</v>
       </c>
@@ -5246,19 +7514,27 @@
         <v>16740</v>
       </c>
       <c r="E70">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>83.7</v>
       </c>
       <c r="F70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>720</v>
       </c>
       <c r="G70">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.6000000000000085</v>
       </c>
-    </row>
-    <row r="71" spans="1:7">
+      <c r="H70">
+        <f t="shared" si="7"/>
+        <v>1.2130434782608697</v>
+      </c>
+      <c r="I70">
+        <f t="shared" si="8"/>
+        <v>3.510230179028162E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71">
         <v>70</v>
       </c>
@@ -5272,19 +7548,27 @@
         <v>17460</v>
       </c>
       <c r="E71">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>87.3</v>
       </c>
       <c r="F71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>720</v>
       </c>
       <c r="G71">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.5999999999999943</v>
       </c>
-    </row>
-    <row r="72" spans="1:7">
+      <c r="H71">
+        <f t="shared" si="7"/>
+        <v>1.2471428571428571</v>
+      </c>
+      <c r="I71">
+        <f t="shared" si="8"/>
+        <v>3.4099378881987441E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72">
         <v>71</v>
       </c>
@@ -5298,19 +7582,27 @@
         <v>18180</v>
       </c>
       <c r="E72">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>90.9</v>
       </c>
       <c r="F72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>720</v>
       </c>
       <c r="G72">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>3.6000000000000085</v>
       </c>
-    </row>
-    <row r="73" spans="1:7">
+      <c r="H72">
+        <f t="shared" si="7"/>
+        <v>1.2802816901408451</v>
+      </c>
+      <c r="I72">
+        <f t="shared" si="8"/>
+        <v>3.3138832997988033E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73">
         <v>72</v>
       </c>
@@ -5324,19 +7616,27 @@
         <v>19080</v>
       </c>
       <c r="E73">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>95.4</v>
       </c>
       <c r="F73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G73">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:7">
+      <c r="H73">
+        <f t="shared" si="7"/>
+        <v>1.3250000000000002</v>
+      </c>
+      <c r="I73">
+        <f t="shared" si="8"/>
+        <v>4.4718309859155037E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74">
         <v>73</v>
       </c>
@@ -5350,19 +7650,27 @@
         <v>19980</v>
       </c>
       <c r="E74">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>99.9</v>
       </c>
       <c r="F74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G74">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:7">
+      <c r="H74">
+        <f t="shared" si="7"/>
+        <v>1.3684931506849316</v>
+      </c>
+      <c r="I74">
+        <f t="shared" si="8"/>
+        <v>4.3493150684931425E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75">
         <v>74</v>
       </c>
@@ -5376,19 +7684,27 @@
         <v>20880</v>
       </c>
       <c r="E75">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>104.4</v>
       </c>
       <c r="F75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G75">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:7">
+      <c r="H75">
+        <f t="shared" si="7"/>
+        <v>1.4108108108108108</v>
+      </c>
+      <c r="I75">
+        <f t="shared" si="8"/>
+        <v>4.2317660125879231E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76">
         <v>75</v>
       </c>
@@ -5402,19 +7718,27 @@
         <v>21780</v>
       </c>
       <c r="E76">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>108.9</v>
       </c>
       <c r="F76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G76">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:7">
+      <c r="H76">
+        <f t="shared" si="7"/>
+        <v>1.4520000000000002</v>
+      </c>
+      <c r="I76">
+        <f t="shared" si="8"/>
+        <v>4.1189189189189346E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77">
         <v>76</v>
       </c>
@@ -5428,19 +7752,27 @@
         <v>22680</v>
       </c>
       <c r="E77">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>113.4</v>
       </c>
       <c r="F77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G77">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:7">
+      <c r="H77">
+        <f t="shared" si="7"/>
+        <v>1.4921052631578948</v>
+      </c>
+      <c r="I77">
+        <f t="shared" si="8"/>
+        <v>4.0105263157894644E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78">
         <v>77</v>
       </c>
@@ -5454,19 +7786,27 @@
         <v>23760</v>
       </c>
       <c r="E78">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>118.8</v>
       </c>
       <c r="F78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1080</v>
       </c>
       <c r="G78">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.3999999999999915</v>
       </c>
-    </row>
-    <row r="79" spans="1:7">
+      <c r="H78">
+        <f t="shared" si="7"/>
+        <v>1.5428571428571429</v>
+      </c>
+      <c r="I78">
+        <f t="shared" si="8"/>
+        <v>5.0751879699248104E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79">
         <v>78</v>
       </c>
@@ -5480,19 +7820,27 @@
         <v>24660</v>
       </c>
       <c r="E79">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>123.3</v>
       </c>
       <c r="F79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G79">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="80" spans="1:7">
+      <c r="H79">
+        <f t="shared" si="7"/>
+        <v>1.5807692307692307</v>
+      </c>
+      <c r="I79">
+        <f t="shared" si="8"/>
+        <v>3.7912087912087777E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80">
         <v>79</v>
       </c>
@@ -5506,19 +7854,27 @@
         <v>25740</v>
       </c>
       <c r="E80">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>128.69999999999999</v>
       </c>
       <c r="F80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1080</v>
       </c>
       <c r="G80">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.3999999999999915</v>
       </c>
-    </row>
-    <row r="81" spans="1:7">
+      <c r="H80">
+        <f t="shared" si="7"/>
+        <v>1.6291139240506327</v>
+      </c>
+      <c r="I80">
+        <f t="shared" si="8"/>
+        <v>4.8344693281402007E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81">
         <v>80</v>
       </c>
@@ -5532,19 +7888,27 @@
         <v>26640</v>
       </c>
       <c r="E81">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>133.19999999999999</v>
       </c>
       <c r="F81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G81">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:7">
+      <c r="H81">
+        <f t="shared" si="7"/>
+        <v>1.6649999999999998</v>
+      </c>
+      <c r="I81">
+        <f t="shared" si="8"/>
+        <v>3.5886075949367102E-2</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82">
         <v>81</v>
       </c>
@@ -5558,19 +7922,27 @@
         <v>27720</v>
       </c>
       <c r="E82">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>138.6</v>
       </c>
       <c r="F82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1080</v>
       </c>
       <c r="G82">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.4000000000000057</v>
       </c>
-    </row>
-    <row r="83" spans="1:7">
+      <c r="H82">
+        <f t="shared" si="7"/>
+        <v>1.711111111111111</v>
+      </c>
+      <c r="I82">
+        <f t="shared" si="8"/>
+        <v>4.6111111111111214E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83">
         <v>82</v>
       </c>
@@ -5584,19 +7956,27 @@
         <v>28620</v>
       </c>
       <c r="E83">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>143.1</v>
       </c>
       <c r="F83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G83">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="84" spans="1:7">
+      <c r="H83">
+        <f t="shared" si="7"/>
+        <v>1.7451219512195122</v>
+      </c>
+      <c r="I83">
+        <f t="shared" si="8"/>
+        <v>3.4010840108401164E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84">
         <v>83</v>
       </c>
@@ -5610,19 +7990,27 @@
         <v>29700</v>
       </c>
       <c r="E84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>148.5</v>
       </c>
       <c r="F84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1080</v>
       </c>
       <c r="G84">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.4000000000000057</v>
       </c>
-    </row>
-    <row r="85" spans="1:7">
+      <c r="H84">
+        <f t="shared" si="7"/>
+        <v>1.7891566265060241</v>
+      </c>
+      <c r="I84">
+        <f t="shared" si="8"/>
+        <v>4.4034675286511948E-2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85">
         <v>84</v>
       </c>
@@ -5636,19 +8024,27 @@
         <v>30600</v>
       </c>
       <c r="E85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>153</v>
       </c>
       <c r="F85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G85">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:7">
+      <c r="H85">
+        <f t="shared" si="7"/>
+        <v>1.8214285714285714</v>
+      </c>
+      <c r="I85">
+        <f t="shared" si="8"/>
+        <v>3.2271944922547258E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86">
         <v>85</v>
       </c>
@@ -5662,19 +8058,27 @@
         <v>31680</v>
       </c>
       <c r="E86">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>158.4</v>
       </c>
       <c r="F86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1080</v>
       </c>
       <c r="G86">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.4000000000000057</v>
       </c>
-    </row>
-    <row r="87" spans="1:7">
+      <c r="H86">
+        <f t="shared" si="7"/>
+        <v>1.8635294117647059</v>
+      </c>
+      <c r="I86">
+        <f t="shared" si="8"/>
+        <v>4.2100840336134482E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87">
         <v>86</v>
       </c>
@@ -5688,19 +8092,27 @@
         <v>32580</v>
       </c>
       <c r="E87">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>162.9</v>
       </c>
       <c r="F87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G87">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:7">
+      <c r="H87">
+        <f t="shared" si="7"/>
+        <v>1.894186046511628</v>
+      </c>
+      <c r="I87">
+        <f t="shared" si="8"/>
+        <v>3.0656634746922151E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88">
         <v>87</v>
       </c>
@@ -5714,19 +8126,27 @@
         <v>33660</v>
       </c>
       <c r="E88">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>168.3</v>
       </c>
       <c r="F88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1080</v>
       </c>
       <c r="G88">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.4000000000000057</v>
       </c>
-    </row>
-    <row r="89" spans="1:7">
+      <c r="H88">
+        <f t="shared" si="7"/>
+        <v>1.9344827586206899</v>
+      </c>
+      <c r="I88">
+        <f t="shared" si="8"/>
+        <v>4.0296712109061827E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89">
         <v>88</v>
       </c>
@@ -5740,19 +8160,27 @@
         <v>34560</v>
       </c>
       <c r="E89">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>172.8</v>
       </c>
       <c r="F89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>900</v>
       </c>
       <c r="G89">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>4.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:7">
+      <c r="H89">
+        <f t="shared" si="7"/>
+        <v>1.9636363636363638</v>
+      </c>
+      <c r="I89">
+        <f t="shared" si="8"/>
+        <v>2.9153605015673989E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90">
         <v>89</v>
       </c>
@@ -5766,19 +8194,27 @@
         <v>35640</v>
       </c>
       <c r="E90">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>178.2</v>
       </c>
       <c r="F90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1080</v>
       </c>
       <c r="G90">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.3999999999999773</v>
       </c>
-    </row>
-    <row r="91" spans="1:7">
+      <c r="H90">
+        <f t="shared" si="7"/>
+        <v>2.0022471910112358</v>
+      </c>
+      <c r="I90">
+        <f t="shared" si="8"/>
+        <v>3.8610827374871981E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91">
         <v>90</v>
       </c>
@@ -5792,19 +8228,27 @@
         <v>36720</v>
       </c>
       <c r="E91">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>183.6</v>
       </c>
       <c r="F91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1080</v>
       </c>
       <c r="G91">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.4000000000000057</v>
       </c>
-    </row>
-    <row r="92" spans="1:7">
+      <c r="H91">
+        <f t="shared" si="7"/>
+        <v>2.04</v>
+      </c>
+      <c r="I91">
+        <f t="shared" si="8"/>
+        <v>3.7752808988764208E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92">
         <v>91</v>
       </c>
@@ -5818,19 +8262,27 @@
         <v>37800</v>
       </c>
       <c r="E92">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>189</v>
       </c>
       <c r="F92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1080</v>
       </c>
       <c r="G92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.4000000000000057</v>
       </c>
-    </row>
-    <row r="93" spans="1:7">
+      <c r="H92">
+        <f t="shared" si="7"/>
+        <v>2.0769230769230771</v>
+      </c>
+      <c r="I92">
+        <f t="shared" si="8"/>
+        <v>3.6923076923077058E-2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93">
         <v>92</v>
       </c>
@@ -5844,19 +8296,27 @@
         <v>38880</v>
       </c>
       <c r="E93">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>194.4</v>
       </c>
       <c r="F93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1080</v>
       </c>
       <c r="G93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>5.4000000000000057</v>
       </c>
-    </row>
-    <row r="94" spans="1:7">
+      <c r="H93">
+        <f t="shared" si="7"/>
+        <v>2.1130434782608698</v>
+      </c>
+      <c r="I93">
+        <f t="shared" si="8"/>
+        <v>3.6120401337792707E-2</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94">
         <v>93</v>
       </c>
@@ -5870,19 +8330,27 @@
         <v>40320</v>
       </c>
       <c r="E94">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>201.6</v>
       </c>
       <c r="F94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1440</v>
       </c>
       <c r="G94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.1999999999999886</v>
       </c>
-    </row>
-    <row r="95" spans="1:7">
+      <c r="H94">
+        <f t="shared" si="7"/>
+        <v>2.1677419354838707</v>
+      </c>
+      <c r="I94">
+        <f t="shared" si="8"/>
+        <v>5.4698457223000929E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95">
         <v>94</v>
       </c>
@@ -5896,19 +8364,27 @@
         <v>41760</v>
       </c>
       <c r="E95">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>208.8</v>
       </c>
       <c r="F95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1440</v>
       </c>
       <c r="G95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7.2000000000000171</v>
       </c>
-    </row>
-    <row r="96" spans="1:7">
+      <c r="H95">
+        <f t="shared" si="7"/>
+        <v>2.2212765957446812</v>
+      </c>
+      <c r="I95">
+        <f t="shared" si="8"/>
+        <v>5.353466026081044E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96">
         <v>95</v>
       </c>
@@ -5922,19 +8398,27 @@
         <v>43380</v>
       </c>
       <c r="E96">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>216.9</v>
       </c>
       <c r="F96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1620</v>
       </c>
       <c r="G96">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.0999999999999943</v>
       </c>
-    </row>
-    <row r="97" spans="1:7">
+      <c r="H96">
+        <f t="shared" si="7"/>
+        <v>2.2831578947368421</v>
+      </c>
+      <c r="I96">
+        <f t="shared" si="8"/>
+        <v>6.1881298992160882E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97">
         <v>96</v>
       </c>
@@ -5948,19 +8432,27 @@
         <v>45000</v>
       </c>
       <c r="E97">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>225</v>
       </c>
       <c r="F97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1620</v>
       </c>
       <c r="G97">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.0999999999999943</v>
       </c>
-    </row>
-    <row r="98" spans="1:7">
+      <c r="H97">
+        <f t="shared" si="7"/>
+        <v>2.34375</v>
+      </c>
+      <c r="I97">
+        <f t="shared" si="8"/>
+        <v>6.0592105263157947E-2</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98">
         <v>97</v>
       </c>
@@ -5974,19 +8466,27 @@
         <v>46620</v>
       </c>
       <c r="E98">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>233.1</v>
       </c>
       <c r="F98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>1620</v>
       </c>
       <c r="G98">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>8.0999999999999943</v>
       </c>
-    </row>
-    <row r="99" spans="1:7">
+      <c r="H98">
+        <f t="shared" si="7"/>
+        <v>2.4030927835051545</v>
+      </c>
+      <c r="I98">
+        <f t="shared" si="8"/>
+        <v>5.9342783505154539E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99">
         <v>98</v>
       </c>
@@ -6000,19 +8500,27 @@
         <v>48240</v>
       </c>
       <c r="E99">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>241.2</v>
       </c>
       <c r="F99">
-        <f t="shared" ref="F99:G111" si="5">D99 - D98</f>
+        <f t="shared" ref="F99:G111" si="9">D99 - D98</f>
         <v>1620</v>
       </c>
       <c r="G99">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8.0999999999999943</v>
       </c>
-    </row>
-    <row r="100" spans="1:7">
+      <c r="H99">
+        <f t="shared" si="7"/>
+        <v>2.4612244897959181</v>
+      </c>
+      <c r="I99">
+        <f t="shared" si="8"/>
+        <v>5.8131706290763585E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100">
         <v>99</v>
       </c>
@@ -6026,19 +8534,27 @@
         <v>49860</v>
       </c>
       <c r="E100">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>249.3</v>
       </c>
       <c r="F100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1620</v>
       </c>
       <c r="G100">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8.1000000000000227</v>
       </c>
-    </row>
-    <row r="101" spans="1:7">
+      <c r="H100">
+        <f t="shared" si="7"/>
+        <v>2.5181818181818181</v>
+      </c>
+      <c r="I100">
+        <f t="shared" si="8"/>
+        <v>5.6957328385899952E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101">
         <v>100</v>
       </c>
@@ -6052,19 +8568,27 @@
         <v>51480</v>
       </c>
       <c r="E101">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>257.39999999999998</v>
       </c>
       <c r="F101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1620</v>
       </c>
       <c r="G101">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>8.0999999999999659</v>
       </c>
-    </row>
-    <row r="102" spans="1:7">
+      <c r="H101">
+        <f t="shared" si="7"/>
+        <v>2.5739999999999998</v>
+      </c>
+      <c r="I101">
+        <f t="shared" si="8"/>
+        <v>5.5818181818181767E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102">
         <v>101</v>
       </c>
@@ -6078,19 +8602,27 @@
         <v>53280</v>
       </c>
       <c r="E102">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>266.39999999999998</v>
       </c>
       <c r="F102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1800</v>
       </c>
       <c r="G102">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="103" spans="1:7">
+      <c r="H102">
+        <f t="shared" si="7"/>
+        <v>2.6376237623762373</v>
+      </c>
+      <c r="I102">
+        <f t="shared" si="8"/>
+        <v>6.3623762376237458E-2</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103">
         <v>102</v>
       </c>
@@ -6104,19 +8636,27 @@
         <v>55080</v>
       </c>
       <c r="E103">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>275.39999999999998</v>
       </c>
       <c r="F103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1800</v>
       </c>
       <c r="G103">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="104" spans="1:7">
+      <c r="H103">
+        <f t="shared" si="7"/>
+        <v>2.6999999999999997</v>
+      </c>
+      <c r="I103">
+        <f t="shared" si="8"/>
+        <v>6.2376237623762432E-2</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104">
         <v>103</v>
       </c>
@@ -6130,19 +8670,27 @@
         <v>57060</v>
       </c>
       <c r="E104">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>285.3</v>
       </c>
       <c r="F104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1980</v>
       </c>
       <c r="G104">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9.9000000000000341</v>
       </c>
-    </row>
-    <row r="105" spans="1:7">
+      <c r="H104">
+        <f t="shared" si="7"/>
+        <v>2.7699029126213595</v>
+      </c>
+      <c r="I104">
+        <f t="shared" si="8"/>
+        <v>6.9902912621359725E-2</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105">
         <v>104</v>
       </c>
@@ -6156,19 +8704,27 @@
         <v>59040</v>
       </c>
       <c r="E105">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>295.2</v>
       </c>
       <c r="F105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1980</v>
       </c>
       <c r="G105">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9.8999999999999773</v>
       </c>
-    </row>
-    <row r="106" spans="1:7">
+      <c r="H105">
+        <f t="shared" si="7"/>
+        <v>2.8384615384615381</v>
+      </c>
+      <c r="I105">
+        <f t="shared" si="8"/>
+        <v>6.8558625840178689E-2</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106">
         <v>105</v>
       </c>
@@ -6182,19 +8738,27 @@
         <v>61020</v>
       </c>
       <c r="E106">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>305.10000000000002</v>
       </c>
       <c r="F106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1980</v>
       </c>
       <c r="G106">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9.9000000000000341</v>
       </c>
-    </row>
-    <row r="107" spans="1:7">
+      <c r="H106">
+        <f t="shared" si="7"/>
+        <v>2.9057142857142861</v>
+      </c>
+      <c r="I106">
+        <f t="shared" si="8"/>
+        <v>6.7252747252747991E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107">
         <v>106</v>
       </c>
@@ -6208,19 +8772,27 @@
         <v>63000</v>
       </c>
       <c r="E107">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>315</v>
       </c>
       <c r="F107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1980</v>
       </c>
       <c r="G107">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9.8999999999999773</v>
       </c>
-    </row>
-    <row r="108" spans="1:7">
+      <c r="H107">
+        <f t="shared" si="7"/>
+        <v>2.9716981132075473</v>
+      </c>
+      <c r="I107">
+        <f t="shared" si="8"/>
+        <v>6.5983827493261149E-2</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108">
         <v>107</v>
       </c>
@@ -6234,19 +8806,27 @@
         <v>64980</v>
       </c>
       <c r="E108">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>324.89999999999998</v>
       </c>
       <c r="F108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1980</v>
       </c>
       <c r="G108">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9.8999999999999773</v>
       </c>
-    </row>
-    <row r="109" spans="1:7">
+      <c r="H108">
+        <f t="shared" si="7"/>
+        <v>3.0364485981308409</v>
+      </c>
+      <c r="I108">
+        <f t="shared" si="8"/>
+        <v>6.4750484923293605E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109">
         <v>108</v>
       </c>
@@ -6260,19 +8840,27 @@
         <v>66960</v>
       </c>
       <c r="E109">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>334.8</v>
       </c>
       <c r="F109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1980</v>
       </c>
       <c r="G109">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9.9000000000000341</v>
       </c>
-    </row>
-    <row r="110" spans="1:7">
+      <c r="H109">
+        <f t="shared" si="7"/>
+        <v>3.1</v>
+      </c>
+      <c r="I109">
+        <f t="shared" si="8"/>
+        <v>6.3551401869159196E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110">
         <v>109</v>
       </c>
@@ -6286,19 +8874,27 @@
         <v>68940</v>
       </c>
       <c r="E110">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>344.7</v>
       </c>
       <c r="F110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1980</v>
       </c>
       <c r="G110">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9.8999999999999773</v>
       </c>
-    </row>
-    <row r="111" spans="1:7">
+      <c r="H110">
+        <f t="shared" si="7"/>
+        <v>3.1623853211009174</v>
+      </c>
+      <c r="I110">
+        <f t="shared" si="8"/>
+        <v>6.2385321100917324E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111">
         <v>110</v>
       </c>
@@ -6312,16 +8908,24 @@
         <v>70920</v>
       </c>
       <c r="E111">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>354.6</v>
       </c>
       <c r="F111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>1980</v>
       </c>
       <c r="G111">
-        <f t="shared" si="5"/>
+        <f t="shared" si="9"/>
         <v>9.9000000000000341</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="7"/>
+        <v>3.2236363636363636</v>
+      </c>
+      <c r="I111">
+        <f t="shared" si="8"/>
+        <v>6.1251042535446221E-2</v>
       </c>
     </row>
   </sheetData>
